--- a/Data/MapBiomas_CRAFTY_classifications.xlsx
+++ b/Data/MapBiomas_CRAFTY_classifications.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1076631\Google Drive\Shared\Crafty Telecoupling\Data\LandCover\MapBiomas23\BrazilInputMaps\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1076631\Google Drive\Shared\Crafty Telecoupling\Data\LandCover\MapBiomas4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CDD148-4A49-4F72-8977-23E5FFEBF5CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923B804E-D55C-402A-9C74-D98051F53231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="2250" windowWidth="14400" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4500" windowWidth="14670" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PastureA" sheetId="2" r:id="rId1"/>
+    <sheet name="PastureC" sheetId="6" r:id="rId1"/>
     <sheet name="PastureB" sheetId="5" r:id="rId2"/>
+    <sheet name="PastureA" sheetId="2" r:id="rId3"/>
+    <sheet name="LC4_2018-03" sheetId="3" r:id="rId4"/>
+    <sheet name="LC4_original" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>LEGENDA</t>
   </si>
@@ -118,7 +121,139 @@
     <t>Five land covers; pasture only from 15 (previously reclass_2018-04)</t>
   </si>
   <si>
+    <t>CRAFTY</t>
+  </si>
+  <si>
+    <t>Four land covers (previously reclass_2018-03)</t>
+  </si>
+  <si>
+    <t>1. Floresta 1</t>
+  </si>
+  <si>
+    <t>1.1. Formações Florestais Naturais 2</t>
+  </si>
+  <si>
+    <t>1.1.1. Floresta Densa 3</t>
+  </si>
+  <si>
+    <t>1.1.2. Floresta Aberta 4</t>
+  </si>
+  <si>
+    <t>1.1.3. Mangue 5</t>
+  </si>
+  <si>
+    <t>1.1.4. Floresta Alagada 6</t>
+  </si>
+  <si>
+    <t>1.1.5. Floresta Degradada 7</t>
+  </si>
+  <si>
+    <t>1.1.6. Floresta Secundária 8</t>
+  </si>
+  <si>
+    <t>1.2. Silvicultura 9</t>
+  </si>
+  <si>
+    <t>2. Formações Naturais não Florestais 10</t>
+  </si>
+  <si>
+    <t>2.1. Áreas Úmidas Naturais não florestais 11</t>
+  </si>
+  <si>
+    <t>2.2. Vegetação Campestre (Campos) 12</t>
+  </si>
+  <si>
+    <t>2.3. Outras formações não florestais 13</t>
+  </si>
+  <si>
+    <t>3. Uso Agropecuário 14</t>
+  </si>
+  <si>
+    <t>3.1. Pastagem 15</t>
+  </si>
+  <si>
+    <t>3.1.1. Pastagem em Campos Naturais 16</t>
+  </si>
+  <si>
+    <t>3.1.2. Outras Pastagens 17</t>
+  </si>
+  <si>
+    <t>3.2. Agricultura 18</t>
+  </si>
+  <si>
+    <t>3.2.1. Culturas Anuais 19</t>
+  </si>
+  <si>
+    <t>3.2.2. Culturas Semi-Perene (Cana de Açúcar) 20</t>
+  </si>
+  <si>
+    <t>3.2.3. Mosaico de Cultivos 28</t>
+  </si>
+  <si>
+    <t>3.3 Agricultura ou Pastagem 21</t>
+  </si>
+  <si>
+    <t>4.Áreas não vegetadas 22</t>
+  </si>
+  <si>
+    <t>4.1. Praias e dunas 23</t>
+  </si>
+  <si>
+    <t>4.2. Infraestrutura Urbana 24</t>
+  </si>
+  <si>
+    <t>4.3. Outras áreas não vegetadas 25</t>
+  </si>
+  <si>
+    <t>5. Corpos D’água 26</t>
+  </si>
+  <si>
+    <t>6. Não observado 27</t>
+  </si>
+  <si>
+    <t>Four classes (the original classification, using MapBiomas version 2)</t>
+  </si>
+  <si>
     <t>Five land covers; pasture from 15 and 12</t>
+  </si>
+  <si>
+    <t>Five land covers; pasture from 15, 12 and 21</t>
+  </si>
+  <si>
+    <t>CRAFTY value</t>
+  </si>
+  <si>
+    <t>2.5. Other non-forest natural formations</t>
+  </si>
+  <si>
+    <t>2.3. Salt Flat</t>
+  </si>
+  <si>
+    <t>2.4. Rocky Outcrop</t>
+  </si>
+  <si>
+    <t>3.2.1. Annual and Perennial Crop</t>
+  </si>
+  <si>
+    <t>3.2.2. Semi-perennial Crop</t>
+  </si>
+  <si>
+    <t>3.3 Mosaic of Agriculture and Pasture</t>
+  </si>
+  <si>
+    <t>4.2 Urban Infrastructure</t>
+  </si>
+  <si>
+    <t>4.3 Mining</t>
+  </si>
+  <si>
+    <t>4.3 Other Non-Vegetated Area</t>
+  </si>
+  <si>
+    <t>5.1. River, Lake and Ocean</t>
+  </si>
+  <si>
+    <t>5.2. Aquaculture</t>
   </si>
 </sst>
 </file>
@@ -435,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80174C9F-E319-480C-8C47-5769E9A75830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A76CD-2EC8-44FC-8F62-9175EFFE523C}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -584,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,10 +789,10 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,7 +881,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -757,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B7FEA9-8A54-4E51-9A98-EF4FA6810986}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -913,10 +1048,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -927,122 +1062,122 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1053,25 +1188,1043 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80174C9F-E319-480C-8C47-5769E9A75830}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7984EF-9147-4F45-8E3B-91C07D1BC5F6}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD84F85-7F09-4F3C-8706-B78C4C1C2733}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>